--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionGameConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8976076E-84AB-4CD6-8375-AD9E6843BA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1560EC-C196-4313-B335-4DC3D74A6C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -285,10 +285,6 @@
     <t>BuffAdd_PlayerGlobalBuffAdd_ToTower_AttackInterval_3</t>
   </si>
   <si>
-    <t>SelectObject_PlayerGlobalBuff_Friend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TestAoe</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -301,6 +297,10 @@
   </si>
   <si>
     <t>list,UnitActionCall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_PlayerGlobalBuff_Self</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -771,7 +771,7 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" customWidth="1"/>
     <col min="9" max="11" width="23.33203125" customWidth="1"/>
   </cols>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
@@ -870,7 +870,7 @@
         <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1017,14 +1017,14 @@
         <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8" si="2">B8&amp;"_"&amp;C8</f>
         <v>DoUnitAction_TestAoe</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>31</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D16" si="3">B11&amp;"_"&amp;C11</f>
+        <f t="shared" ref="D11:D15" si="3">B11&amp;"_"&amp;C11</f>
         <v>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy1</v>
       </c>
       <c r="G11" t="s">
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionGameConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1560EC-C196-4313-B335-4DC3D74A6C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4218D5ED-DF32-42C4-9896-A1D6F83BC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -155,22 +155,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actionCondition1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>触发action</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -301,6 +285,54 @@
   </si>
   <si>
     <t>SelectObject_PlayerGlobalBuff_Self</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition1SelectObj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition2SelectObj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测条件1对象选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测条件2对象选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -383,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -431,13 +463,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -453,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -462,22 +501,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -757,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -774,6 +829,10 @@
     <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.21875" customWidth="1"/>
     <col min="9" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="15" customWidth="1"/>
+    <col min="13" max="13" width="25.21875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="15" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -791,17 +850,17 @@
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
+      <c r="G1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -833,15 +892,23 @@
         <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
+        <v>69</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -869,17 +936,17 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
+      <c r="G3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -908,10 +975,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -940,24 +1007,32 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
+        <v>71</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -982,18 +1057,18 @@
         <v>DoUnitAction_1</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1003,100 +1078,115 @@
         <v>DoUnitAction_2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8" si="2">B8&amp;"_"&amp;C8</f>
         <v>DoUnitAction_TestAoe</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" s="16"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L9"/>
+      <c r="M9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" ref="D11:D15" si="3">B11&amp;"_"&amp;C11</f>
         <v>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy1</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="G12" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="3"/>
         <v>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy2</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -1104,206 +1194,248 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="3"/>
         <v>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy3</v>
       </c>
       <c r="G15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="L17"/>
+      <c r="M17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G22" t="s">
         <v>47</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G23" t="s">
         <v>48</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>37</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G24" t="s">
         <v>49</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>38</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G25" t="s">
         <v>50</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25" s="16"/>
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G26" t="s">
         <v>51</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G27" t="s">
         <v>52</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>41</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G28" t="s">
         <v>53</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28" s="16"/>
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>42</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G29" t="s">
         <v>54</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="M29" s="16"/>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="L30"/>
+      <c r="M30" s="16"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="16"/>
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L34"/>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M37" s="16"/>
+      <c r="O37" s="16"/>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="G3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionGameConfig/ActionGameCfg_DoUnitAction.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionGameConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionGameConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4218D5ED-DF32-42C4-9896-A1D6F83BC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F08C479-9135-4AFD-8321-7A2A108596A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -136,13 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DoUnitAction</t>
-  </si>
-  <si>
-    <t>action_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>delayTime</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -163,37 +145,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CoinAdd_TowerAlchemy1</t>
-  </si>
-  <si>
     <t>EffectCreate_BuffTowerAlchemy1</t>
   </si>
   <si>
-    <t>CoinAdd_TowerAlchemy2</t>
-  </si>
-  <si>
     <t>EffectCreate_BuffTowerAlchemy2</t>
   </si>
   <si>
-    <t>CoinAdd_TowerAlchemy3</t>
-  </si>
-  <si>
     <t>EffectCreate_BuffTowerAlchemy3</t>
   </si>
   <si>
-    <t>DoUnitAction</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AddCoinWhenBattleEnd_TowerAlchemy1</t>
-  </si>
-  <si>
-    <t>AddCoinWhenBattleEnd_TowerAlchemy2</t>
-  </si>
-  <si>
-    <t>AddCoinWhenBattleEnd_TowerAlchemy3</t>
-  </si>
-  <si>
     <t>SelectObject_Self</t>
   </si>
   <si>
@@ -269,10 +229,6 @@
     <t>BuffAdd_PlayerGlobalBuffAdd_ToTower_AttackInterval_3</t>
   </si>
   <si>
-    <t>TestAoe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CallAoe_1</t>
   </si>
   <si>
@@ -333,6 +289,49 @@
   </si>
   <si>
     <t>筛选条件2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoUnitAction_1</t>
+  </si>
+  <si>
+    <t>DoUnitAction_2</t>
+  </si>
+  <si>
+    <t>DoUnitAction_TestAoe</t>
+  </si>
+  <si>
+    <t>DoUnitAction_NormalAttack_Tower_Alchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoUnitAction_NormalAttack_Tower_Alchemy2</t>
+  </si>
+  <si>
+    <t>DoUnitAction_NormalAttack_Tower_Alchemy3</t>
+  </si>
+  <si>
+    <t>CoinAdd_NormalAttack_Tower_Alchemy1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinAdd_NormalAttack_Tower_Alchemy2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinAdd_NormalAttack_Tower_Alchemy3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoToDie_Org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoUnitAction_GoToDie_Org</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIds</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -501,12 +500,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +526,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -812,55 +811,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1"/>
-    <col min="9" max="11" width="23.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="15" customWidth="1"/>
-    <col min="13" max="13" width="25.21875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="15" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="31.125" customWidth="1"/>
+    <col min="5" max="5" width="51.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="46.875" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="10" max="10" width="45.25" style="13" customWidth="1"/>
+    <col min="11" max="11" width="22.25" style="13" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="28.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
+      <c r="E1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1"/>
+      <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -870,45 +869,43 @@
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>63</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2"/>
+      <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
@@ -918,35 +915,33 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-    </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="E3" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3"/>
+      <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -956,29 +951,27 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-    </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4"/>
+      <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -988,51 +981,49 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-    </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>67</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5"/>
+      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
@@ -1042,400 +1033,416 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" ref="D6" si="0">B6&amp;"_"&amp;C6</f>
-        <v>DoUnitAction_1</v>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" s="14"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="J9"/>
+      <c r="K9" s="14"/>
+      <c r="M9" s="14"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="E16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="E21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J22"/>
+      <c r="K22" s="14"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="M25" s="14"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26"/>
+      <c r="K26" s="14"/>
+      <c r="M26" s="14"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="M29" s="14"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="14"/>
+      <c r="M30" s="14"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" ref="D7" si="1">B7&amp;"_"&amp;C7</f>
-        <v>DoUnitAction_2</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33"/>
+      <c r="K33" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J35"/>
+      <c r="K35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" t="s">
         <v>21</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" ref="D8" si="2">B8&amp;"_"&amp;C8</f>
-        <v>DoUnitAction_TestAoe</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8"/>
-      <c r="M8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="L9"/>
-      <c r="M9" s="16"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" ref="D11:D15" si="3">B11&amp;"_"&amp;C11</f>
-        <v>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="16"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="3"/>
-        <v>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13"/>
-      <c r="M13" s="16"/>
-      <c r="O13" s="16"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="3"/>
-        <v>DoUnitAction_AddCoinWhenBattleEnd_TowerAlchemy3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="16"/>
-      <c r="O16" s="16"/>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="L17"/>
-      <c r="M17" s="16"/>
-      <c r="O17" s="16"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M20" s="16"/>
-      <c r="O20" s="16"/>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L21"/>
-      <c r="M21" s="16"/>
-      <c r="O21" s="16"/>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="O24" s="16"/>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25"/>
-      <c r="M25" s="16"/>
-      <c r="O25" s="16"/>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L28"/>
-      <c r="M28" s="16"/>
-      <c r="O28" s="16"/>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="O29" s="16"/>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="L30"/>
-      <c r="M30" s="16"/>
-      <c r="O30" s="16"/>
-    </row>
-    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="M33" s="16"/>
-      <c r="O33" s="16"/>
-    </row>
-    <row r="34" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L34"/>
-    </row>
-    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="M37" s="16"/>
-      <c r="O37" s="16"/>
-    </row>
-    <row r="38" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L38"/>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K38" s="14"/>
+      <c r="M38" s="14"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J39"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K42" s="14"/>
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="J43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="G3:O3"/>
+    <mergeCell ref="E1:M1"/>
+    <mergeCell ref="E3:M3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
